--- a/Output_testing/R1_201907/Country/HKD/MN/VIETNAM_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/VIETNAM_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>4534.110091</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>6.282240452129733</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>6970.895374</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>8.753868878843098</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>9242.698931000001</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>11.10568164663056</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>6873.845995</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>15.18093771570254</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>33.42407867909331</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>14507.454574</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>20.10081717317025</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>18209.249619</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>22.86670147731436</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>13549.28943</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>16.28031985797422</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>6348.819167</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>14.02141223597278</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-19.08666965501994</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4260.61269</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.90329587389264</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>5365.599318</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>6.737979895863798</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>5435.313652</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>6.530869772923138</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2847.840046</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.289474974280311</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-6.902401004672621</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>4424.723448</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>6.130679687219918</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>1965.990066</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.468839127762827</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>5544.683351</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.662284316223685</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2310.797519</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.103412737942632</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-20.97696079655703</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>4082.754266</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.656863969157303</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>4956.079822</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>6.223715977245141</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>4516.367319</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>5.426698199141022</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2261.605783</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.994772439500322</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-13.80647136324557</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2063.46812</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.859040172155381</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>3044.269947</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>3.822914922412466</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3440.463992</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>4.133932966667969</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2051.72614</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.531251756829443</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>10.29556769105884</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>1754.295713</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>2.430666056186498</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>1802.486357</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.263515427864973</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2058.331093</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.473213723920995</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1362.867043</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.009901547054763</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>25.41267837757701</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1097.566753</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>1.520734635071146</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1857.605</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>2.332731984378128</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>2039.748159</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>2.450885164849125</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1265.260851</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>2.794337578572385</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>6.824275546751113</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1756.693919</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.433988892739507</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1601.497718</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>2.011119129032913</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1991.11041</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.392443863186573</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>966.102081</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>2.133643309631875</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-11.4412794302792</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1048.157007</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.452274915562616</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1208.139589</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>1.517150234228346</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1356.301142</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.629680768838349</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>819.822549</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.810583923956168</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>6.895258641004931</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>32643.620095</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>45.22939817271501</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>32650.352927</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>41.00146294505394</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>34050.650926</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>40.91398971964437</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>18170.768705</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>40.13027178055679</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-6.959836187393298</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,449 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>FERROUS WASTE AND SCRAP; REMELTING INGOTS OF IRON OR STEEL</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>870.7117940000001</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>44.58690408856987</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>1217.615067</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>50.12005409393464</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>1359.362688</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>52.82863962858742</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>472.470149</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>40.69848881942437</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-47.69460244037334</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>560.2287</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>28.68786605015733</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>572.096586</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>23.54891345745423</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>697.287478</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>27.09854347038587</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>397.608805</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>34.24994687822528</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>10.59109953558468</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>35.473457</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>1.81650419329109</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>74.085876</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>3.049558282705231</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>71.314683</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.771488228779418</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>48.708663</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>4.195754971420659</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>3.725440528458468</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>66.501593</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>3.405374969376043</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>72.82545</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>2.997676024499402</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>79.92794499999999</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>3.106223703161224</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>43.042156</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>3.70764313562997</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-2.722215435769193</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>70.086704</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>3.588959252264345</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>74.269019</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>3.057096902516778</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>65.737816</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>2.554755564568202</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>34.903713</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>3.006599202708353</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-13.70146186534548</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>ESSENTIAL OILS, PERFUME AND FLAVOUR MATERIALS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>23.502526</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>1.203503707911322</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>35.723863</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>1.470482744941518</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>43.216812</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>1.679526300963479</v>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>24.935388</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>2.14792958216289</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>7.974508972613537</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>25.265061</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>1.293758577018732</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>25.163714</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>1.035800838102064</v>
+      </c>
+      <c r="G37" s="8" t="n">
+        <v>29.338399</v>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>1.140172318787898</v>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>20.191423</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>1.739285338879194</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>10.23267062817548</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>POLYMERS OF STYRENE, IN PRIMARY FORMS</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>104.421433</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>5.347152123176621</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>142.538243</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>5.867227371960896</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>31.866497</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>1.238421284547176</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>13.94998</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>1.201648625342452</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-21.36404435389929</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>13.849</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>1.192950227338507</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>11.288104</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.5780346767529853</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>0.879345</v>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>13.072424</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.5080309932474013</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>11.775478</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>1.014337436430037</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-9.921235724912226</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>185.362638</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>9.491942361481664</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>214.19979</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>8.81699426417285</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>182.03008</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>7.074198506971921</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>79.468666</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>6.845415782438288</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-35.06473522125741</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1742,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>4533.935183</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>6.456701076408092</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>6970.801149</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>9.02921133373221</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>9242.663677</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>11.45995906649283</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>6873.845995</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>15.58039784180083</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>33.42499169848041</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>14505.267264</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>20.65670790976895</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>18206.962359</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>23.58330231644921</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>13549.28943</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>16.79973519260015</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>6348.819167</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>14.39036145404805</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-19.08666965501994</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>4256.284228</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>6.061303006595359</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>5359.633917</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>6.942281995086638</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>5427.840515</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.729967928633024</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>2844.843974</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.4481806757106</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-6.886616020107583</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MEAT AND EDIBLE MEAT OFFAL, FRESH, CHILLED OR FROZEN (EXCEPT MEAT AND MEAT OFFAL UNFIT FOR HUMAN CONSUMPTION)</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>4424.723448</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>6.301174475680571</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>1965.990066</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.546527925054735</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>5544.683351</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.874841112875897</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2310.797519</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.237700219652116</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-20.97696079655703</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>4082.003601</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>5.813112887740726</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>4955.860097</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>6.41927766977586</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>4516.066423</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.599461168097062</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2261.566417</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.126112011841203</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-13.80179465361779</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2063.46812</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.938550352791354</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>3044.269947</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>3.94321342997081</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3440.463992</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.265823997921343</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2051.72614</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.6504838116645</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>10.29556769105884</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>1753.556572</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.49721051338084</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1801.992088</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>2.334102929704066</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2057.949038</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>2.551646642200795</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1362.49081</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.088249124440483</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>25.39741354406195</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1097.510863</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>1.562946818708783</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1857.57395</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.406097578180351</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>2039.628159</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>2.528930623232731</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1265.167326</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>2.867653754516118</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>6.816379356520752</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>MEAT OF BOVINE ANIMALS, FRESH, CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>921.28799</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.311990779889993</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>377.482924</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.4889499819056127</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1292.66877</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.602777262965601</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>799.384844</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.811901795193754</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>82.24928858619461</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1031.742173</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.469286729982951</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>1093.249761</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>1.416075845749424</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1224.491282</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>1.518244140367992</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>792.313733</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.795874272516686</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>6.223553451525787</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>31550.835224</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>44.93101544905238</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>31568.952526</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>40.89095899439108</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>32316.058946</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>40.06861286461257</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>17207.596533</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>39.00308503861566</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-7.57756175283455</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2200,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>24334.751588</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>44.84517917973151</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>28182.616501</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>45.71781248166602</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>27280.825443</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>41.2538278501131</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>15439.650359</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>43.07301473666634</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>9.280804342385363</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>11531.914491</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>21.25153280336979</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>12166.957652</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>19.73722661225476</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>15923.995826</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>24.08012850873193</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>7168.567601</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>19.99862760743634</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>1.071719810258331</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>1993.61638</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>3.673926296450662</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2237.973467</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>3.630438334198654</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>2745.703022</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>4.152028318710111</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1779.797808</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>4.965219770510119</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>28.09881231245583</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>854.646149</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>1.574980519056224</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>1018.098847</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.651558937875581</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>2052.628991</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>3.103967774427923</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1296.543743</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>3.617053913168315</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>46.67070696422846</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1853.30121</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.415347164564744</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2685.631015</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.356627963708045</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>2019.618116</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.054049015287846</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>951.79936</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>2.65529768526992</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-18.95507541933527</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>1262.645995</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>2.326861060470726</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1604.458181</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>2.602750466800348</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>1549.500326</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>2.343140966759131</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>681.014363</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>1.89987085272832</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-30.24931231676569</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>901.230036</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>1.660827409740472</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>903.438528</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>1.465557082336582</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>1054.716163</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>1.59493264271072</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>598.422647</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>1.669459274896128</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>3.232734247604818</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>672.423411</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>1.239172228321053</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>614.646759</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.9970793616493587</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>752.360816</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>1.137713506846935</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>478.780024</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>1.335684328975255</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>11.23010807954319</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>740.740554</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.365070144632355</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>781.4553</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>1.267676011094867</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>815.508812</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>1.233205359228992</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>398.010781</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>1.110357024721863</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-18.36414208351784</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>868.75595</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.600982697535308</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>861.512354</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.397544484537592</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>725.128595</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.096533178214375</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>385.617519</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.075782721266202</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-8.356639459458027</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>9249.892974</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>17.04612049612715</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>10587.929223</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>17.1757282638782</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>11209.211748</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>16.95047287896894</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>6667.093491</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>18.5996320843612</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>6.580597904725316</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
